--- a/Project1/Project1/Stage05.xlsx
+++ b/Project1/Project1/Stage05.xlsx
@@ -505,7 +505,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="AY17" sqref="AY17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -668,22 +668,22 @@
         <v>0</v>
       </c>
       <c r="AZ1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF1" s="1">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="AG2" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH2" s="1">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL2" s="1">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ2" s="1">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="1">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="BE2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2" s="1">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="1">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="1">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="BE3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="1">
         <v>0</v>
@@ -1463,40 +1463,40 @@
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
         <v>1</v>
@@ -1523,73 +1523,73 @@
         <v>1</v>
       </c>
       <c r="AI4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AN4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="1">
         <v>1</v>
       </c>
       <c r="AS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AX4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="1">
         <v>1</v>
       </c>
       <c r="BA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>0</v>
       </c>
       <c r="BE4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="1">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5" s="1">
         <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AU5" s="1">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -1885,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>0</v>
       </c>
       <c r="BE5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="1">
         <v>0</v>
@@ -2028,40 +2028,40 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
@@ -2094,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
@@ -2109,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="AC6" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH6" s="1">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="1">
         <v>0</v>
@@ -2154,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6" s="1">
         <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="1">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="1">
         <v>0</v>
@@ -2187,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="BC6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>0</v>
       </c>
       <c r="BE6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="1">
         <v>0</v>
@@ -2330,139 +2330,139 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
       </c>
       <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1">
         <v>9</v>
       </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>9</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0</v>
-      </c>
       <c r="AR7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7" s="1">
         <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="1">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="1">
         <v>0</v>
@@ -2489,13 +2489,13 @@
         <v>0</v>
       </c>
       <c r="BC7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BE7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="1">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
@@ -2677,85 +2677,85 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="1">
         <v>1</v>
       </c>
       <c r="AM8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" s="1">
         <v>1</v>
@@ -2767,37 +2767,37 @@
         <v>1</v>
       </c>
       <c r="AU8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="1">
         <v>1</v>
       </c>
       <c r="BD8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="1">
         <v>0</v>
@@ -2973,13 +2973,13 @@
         <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
@@ -3027,10 +3027,10 @@
         <v>1</v>
       </c>
       <c r="AG9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="1">
         <v>1</v>
@@ -3045,10 +3045,10 @@
         <v>1</v>
       </c>
       <c r="AM9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="1">
         <v>1</v>
@@ -3096,10 +3096,10 @@
         <v>1</v>
       </c>
       <c r="BD9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="1">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
         <v>1</v>
@@ -3329,10 +3329,10 @@
         <v>1</v>
       </c>
       <c r="AG10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="1">
         <v>1</v>
@@ -3347,10 +3347,10 @@
         <v>1</v>
       </c>
       <c r="AM10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="1">
         <v>1</v>
@@ -3398,10 +3398,10 @@
         <v>1</v>
       </c>
       <c r="BD10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="1">
         <v>0</v>
@@ -3535,7 +3535,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:T10 O1:W8 U5:AN8 U4:AO4">
+  <conditionalFormatting sqref="O1:W8 U4:AO4 C5:BC9 A1:T10 C8:BE10">
     <cfRule type="cellIs" dxfId="15" priority="11" operator="between">
       <formula>4</formula>
       <formula>4</formula>
